--- a/Fanta.xlsx
+++ b/Fanta.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -563,7 +563,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D11"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -960,9 +960,6 @@
       <c r="A2" t="str">
         <v/>
       </c>
-      <c r="B2">
-        <v/>
-      </c>
       <c r="C2" t="str">
         <v/>
       </c>
@@ -974,9 +971,6 @@
       <c r="A3" t="str">
         <v/>
       </c>
-      <c r="B3">
-        <v/>
-      </c>
       <c r="C3" t="str">
         <v/>
       </c>
@@ -988,9 +982,6 @@
       <c r="A4" t="str">
         <v/>
       </c>
-      <c r="B4">
-        <v/>
-      </c>
       <c r="C4" t="str">
         <v/>
       </c>
@@ -1002,9 +993,6 @@
       <c r="A5" t="str">
         <v/>
       </c>
-      <c r="B5">
-        <v/>
-      </c>
       <c r="C5" t="str">
         <v/>
       </c>
@@ -1016,9 +1004,6 @@
       <c r="A6" t="str">
         <v/>
       </c>
-      <c r="B6">
-        <v/>
-      </c>
       <c r="C6" t="str">
         <v/>
       </c>
@@ -1058,9 +1043,6 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v/>
-      </c>
-      <c r="B13">
         <v/>
       </c>
       <c r="C13" t="str">

--- a/Fanta.xlsx
+++ b/Fanta.xlsx
@@ -937,7 +937,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1053,16 +1053,34 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
       <c r="D14" t="str">
         <v>CEN</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
       <c r="D15" t="str">
         <v>CEN</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
       <c r="D16" t="str">
         <v>CEN</v>
       </c>
@@ -1088,26 +1106,59 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <v>Lautaro Martinez</v>
+      </c>
+      <c r="B21">
+        <v>320</v>
+      </c>
+      <c r="C21" t="str">
+        <v>INTER</v>
+      </c>
       <c r="D21" t="str">
         <v>ATT</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
       <c r="D22" t="str">
         <v>ATT</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
       <c r="D23" t="str">
         <v>ATT</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
       <c r="D24" t="str">
         <v>ATT</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
       <c r="D25" t="str">
         <v>ATT</v>
       </c>
@@ -1117,21 +1168,10 @@
         <v>ATT</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>Lautaro Martinez</v>
-      </c>
-      <c r="B27">
-        <v>320</v>
-      </c>
-      <c r="C27" t="str">
-        <v>INTER</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D27"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Fanta.xlsx
+++ b/Fanta.xlsx
@@ -7,7 +7,16 @@
     <sheet name="DIF" sheetId="2" r:id="rId2"/>
     <sheet name="CEN" sheetId="3" r:id="rId3"/>
     <sheet name="ATT" sheetId="4" r:id="rId4"/>
-    <sheet name="SQUADRA" sheetId="5" r:id="rId5"/>
+    <sheet name="BRIAN" sheetId="5" r:id="rId5"/>
+    <sheet name="Foglio1" sheetId="6" r:id="rId6"/>
+    <sheet name="Foglio2" sheetId="7" r:id="rId7"/>
+    <sheet name="Foglio3" sheetId="8" r:id="rId8"/>
+    <sheet name="Foglio4" sheetId="9" r:id="rId9"/>
+    <sheet name="Foglio5" sheetId="10" r:id="rId10"/>
+    <sheet name="Foglio6" sheetId="11" r:id="rId11"/>
+    <sheet name="Foglio7" sheetId="12" r:id="rId12"/>
+    <sheet name="Foglio8" sheetId="13" r:id="rId13"/>
+    <sheet name="Foglio9" sheetId="14" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
@@ -568,6 +577,76 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
@@ -838,7 +917,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -862,7 +941,7 @@
         <v>Lautaro Martinez</v>
       </c>
       <c r="B2">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="C2">
         <v>400</v>
@@ -873,38 +952,38 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Vlahovic</v>
+        <v>Osimhen</v>
       </c>
       <c r="B3">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="C3">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="D3" t="str">
-        <v>JUVENTUS</v>
+        <v>NAPOLI</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Osimhen</v>
+        <v>Vlahovic</v>
       </c>
       <c r="B4">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="C4">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="D4" t="str">
-        <v>NAPOLI</v>
+        <v>JUVENTUS</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Dybala</v>
+        <v>Giroud</v>
       </c>
       <c r="B5">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C5">
         <v>300</v>
@@ -915,29 +994,141 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Scamacca</v>
+        <v>Dybala</v>
       </c>
       <c r="B6">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="C6">
         <v>200</v>
       </c>
       <c r="D6" t="str">
         <v>ATALANTA</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Lukaku</v>
+      </c>
+      <c r="B7">
+        <v>260</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7" t="str">
+        <v>ROMA</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Dovbyk</v>
+      </c>
+      <c r="B8">
+        <v>258</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8" t="str">
+        <v>ROMA</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Kvaratskhelia</v>
+      </c>
+      <c r="B9">
+        <v>252</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9" t="str">
+        <v>NAPOLI</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Thuram</v>
+      </c>
+      <c r="B10">
+        <v>238</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10" t="str">
+        <v>INTER</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Zirkzee</v>
+      </c>
+      <c r="B11">
+        <v>230</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11" t="str">
+        <v>BOLOGNA</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Lookman</v>
+      </c>
+      <c r="B12">
+        <v>222</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12" t="str">
+        <v>ATALANTA</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Leao</v>
+      </c>
+      <c r="B13">
+        <v>195</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13" t="str">
+        <v>MILAN</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Gudmundsson</v>
+      </c>
+      <c r="B14">
+        <v>170</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14" t="str">
+        <v>GENOA</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D14"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1012,16 +1203,34 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
       <c r="D7" t="str">
         <v>DIF</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
       <c r="D8" t="str">
         <v>DIF</v>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
       <c r="D9" t="str">
         <v>DIF</v>
       </c>
@@ -1107,13 +1316,13 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Lautaro Martinez</v>
+        <v/>
       </c>
       <c r="B21">
-        <v>320</v>
+        <v/>
       </c>
       <c r="C21" t="str">
-        <v>INTER</v>
+        <v/>
       </c>
       <c r="D21" t="str">
         <v>ATT</v>
@@ -1123,6 +1332,9 @@
       <c r="A22" t="str">
         <v/>
       </c>
+      <c r="B22">
+        <v/>
+      </c>
       <c r="C22" t="str">
         <v/>
       </c>
@@ -1134,6 +1346,9 @@
       <c r="A23" t="str">
         <v/>
       </c>
+      <c r="B23">
+        <v/>
+      </c>
       <c r="C23" t="str">
         <v/>
       </c>
@@ -1145,6 +1360,9 @@
       <c r="A24" t="str">
         <v/>
       </c>
+      <c r="B24">
+        <v/>
+      </c>
       <c r="C24" t="str">
         <v/>
       </c>
@@ -1156,6 +1374,9 @@
       <c r="A25" t="str">
         <v/>
       </c>
+      <c r="B25">
+        <v/>
+      </c>
       <c r="C25" t="str">
         <v/>
       </c>
@@ -1164,6 +1385,15 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
       <c r="D26" t="str">
         <v>ATT</v>
       </c>
@@ -1171,7 +1401,63 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D31"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Fanta.xlsx
+++ b/Fanta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="IMPOSTAZIONI" sheetId="1" state="visible" r:id="rId2"/>
@@ -312,7 +312,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:C26 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -349,7 +349,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:C26 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:C26 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -680,8 +680,8 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -703,127 +703,127 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="1" t="s">
         <v>8</v>
       </c>
@@ -847,7 +847,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:C26 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1537,7 +1537,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:C26 A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1559,22 +1559,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
@@ -1703,7 +1703,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:C26 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1869,7 +1869,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:C26 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2035,7 +2035,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:C26 A1"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2137,42 +2137,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2201,7 +2201,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:C26 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2366,8 +2366,8 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2389,127 +2389,127 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="1" t="s">
         <v>8</v>
       </c>
@@ -2533,7 +2533,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:C26 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
